--- a/data/2021-01-24/tn.xlsx
+++ b/data/2021-01-24/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$3099</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$3109</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3099"/>
+  <dimension ref="A1:H3109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -85860,6 +85860,286 @@
         <v>0</v>
       </c>
       <c r="H3099" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3100">
+      <c r="A3100" s="1">
+        <v>44220</v>
+      </c>
+      <c r="B3100" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C3100" s="0">
+        <v>36749</v>
+      </c>
+      <c r="D3100" s="0">
+        <v>5.18528552299437E-02</v>
+      </c>
+      <c r="E3100" s="0">
+        <v>167</v>
+      </c>
+      <c r="F3100" s="0">
+        <v>5.87821189721929E-02</v>
+      </c>
+      <c r="G3100" s="0">
+        <v>5</v>
+      </c>
+      <c r="H3100" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3101">
+      <c r="A3101" s="1">
+        <v>44220</v>
+      </c>
+      <c r="B3101" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C3101" s="0">
+        <v>88928</v>
+      </c>
+      <c r="D3101" s="0">
+        <v>0.125477447274441</v>
+      </c>
+      <c r="E3101" s="0">
+        <v>368</v>
+      </c>
+      <c r="F3101" s="0">
+        <v>0.129531854980641</v>
+      </c>
+      <c r="G3101" s="0">
+        <v>3</v>
+      </c>
+      <c r="H3101" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3102">
+      <c r="A3102" s="1">
+        <v>44220</v>
+      </c>
+      <c r="B3102" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C3102" s="0">
+        <v>129116</v>
+      </c>
+      <c r="D3102" s="0">
+        <v>0.182182733023195</v>
+      </c>
+      <c r="E3102" s="0">
+        <v>477</v>
+      </c>
+      <c r="F3102" s="0">
+        <v>0.167898627243928</v>
+      </c>
+      <c r="G3102" s="0">
+        <v>40</v>
+      </c>
+      <c r="H3102" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3103">
+      <c r="A3103" s="1">
+        <v>44220</v>
+      </c>
+      <c r="B3103" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C3103" s="0">
+        <v>110141</v>
+      </c>
+      <c r="D3103" s="0">
+        <v>0.155408999643017</v>
+      </c>
+      <c r="E3103" s="0">
+        <v>419</v>
+      </c>
+      <c r="F3103" s="0">
+        <v>0.147483280535023</v>
+      </c>
+      <c r="G3103" s="0">
+        <v>88</v>
+      </c>
+      <c r="H3103" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3104">
+      <c r="A3104" s="1">
+        <v>44220</v>
+      </c>
+      <c r="B3104" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C3104" s="0">
+        <v>105670</v>
+      </c>
+      <c r="D3104" s="0">
+        <v>0.14910041666843</v>
+      </c>
+      <c r="E3104" s="0">
+        <v>377</v>
+      </c>
+      <c r="F3104" s="0">
+        <v>0.132699753607885</v>
+      </c>
+      <c r="G3104" s="0">
+        <v>285</v>
+      </c>
+      <c r="H3104" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3105">
+      <c r="A3105" s="1">
+        <v>44220</v>
+      </c>
+      <c r="B3105" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C3105" s="0">
+        <v>99592</v>
+      </c>
+      <c r="D3105" s="0">
+        <v>0.140524355984123</v>
+      </c>
+      <c r="E3105" s="0">
+        <v>406</v>
+      </c>
+      <c r="F3105" s="0">
+        <v>0.142907426962337</v>
+      </c>
+      <c r="G3105" s="0">
+        <v>747</v>
+      </c>
+      <c r="H3105" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3106">
+      <c r="A3106" s="1">
+        <v>44220</v>
+      </c>
+      <c r="B3106" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C3106" s="0">
+        <v>71760</v>
+      </c>
+      <c r="D3106" s="0">
+        <v>0.101253391692312</v>
+      </c>
+      <c r="E3106" s="0">
+        <v>309</v>
+      </c>
+      <c r="F3106" s="0">
+        <v>0.108764519535375</v>
+      </c>
+      <c r="G3106" s="0">
+        <v>1613</v>
+      </c>
+      <c r="H3106" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3107">
+      <c r="A3107" s="1">
+        <v>44220</v>
+      </c>
+      <c r="B3107" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C3107" s="0">
+        <v>42974</v>
+      </c>
+      <c r="D3107" s="0">
+        <v>6.06363329791722E-02</v>
+      </c>
+      <c r="E3107" s="0">
+        <v>164</v>
+      </c>
+      <c r="F3107" s="0">
+        <v>5.77261527631116E-02</v>
+      </c>
+      <c r="G3107" s="0">
+        <v>2702</v>
+      </c>
+      <c r="H3107" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3108">
+      <c r="A3108" s="1">
+        <v>44220</v>
+      </c>
+      <c r="B3108" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C3108" s="0">
+        <v>22688</v>
+      </c>
+      <c r="D3108" s="0">
+        <v>3.20127780199995E-02</v>
+      </c>
+      <c r="E3108" s="0">
+        <v>78</v>
+      </c>
+      <c r="F3108" s="0">
+        <v>0.027455121436114</v>
+      </c>
+      <c r="G3108" s="0">
+        <v>3376</v>
+      </c>
+      <c r="H3108" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3109">
+      <c r="A3109" s="1">
+        <v>44220</v>
+      </c>
+      <c r="B3109" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C3109" s="0">
+        <v>1099</v>
+      </c>
+      <c r="D3109" s="0">
+        <v>1.55068948536581E-03</v>
+      </c>
+      <c r="E3109" s="0">
+        <v>76</v>
+      </c>
+      <c r="F3109" s="0">
+        <v>2.67511439633932E-02</v>
+      </c>
+      <c r="G3109" s="0">
+        <v>0</v>
+      </c>
+      <c r="H3109" s="0">
         <v>0</v>
       </c>
     </row>
@@ -86291,13 +86571,6 @@
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2712</_dlc_DocId>
-    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
-    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2712</Url>
-      <Description>HJYU5V3E37X6-122305290-2712</Description>
-    </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
     <e67c2c055ae043d09da25150149f3d62 xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00">
@@ -86312,24 +86585,31 @@
     </Assigned_x0020_To0>
     <TaxCatchAll xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00"/>
     <Doc_x0020_Type xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
+    <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2725</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2725</Url>
+      <Description>HJYU5V3E37X6-122305290-2725</Description>
+    </_dlc_DocIdUrl>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17FC97D1-76E8-43DA-93F0-E070299F7D8E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7488F2CC-ADB5-491D-9991-9C869F0734BD}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14528D95-CD6E-494A-AE17-9CDC8865C0BF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F819B9D9-723C-4049-9BD3-D4BC3716D239}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9423146F-D7BB-407F-8549-7AF19FD40559}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2ADB2777-A0F8-47F3-A3CF-2CF9FA152452}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89CD8C02-03B5-4C95-959B-A283190FCCB1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{887999AC-323C-4A08-899A-CF54A8A5A1FB}"/>
 </file>